--- a/www.eia.gov/electricity/monthly/xls/table_c_2.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_c_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
